--- a/data/pricelists/citilink_pricelist.xlsx
+++ b/data/pricelists/citilink_pricelist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\GolandProjects\StartupPCConfigurator\data\pricelists\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCC9329-39C0-4AC4-ABAE-3AC98F5A9C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A473407E-3304-48BE-9473-412E61CB9641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="3890" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>В наличии</t>
   </si>
   <si>
-    <t>https://www.dns-shop.ru/product/3239ebce09e93332/processor-amd-ryzen-5-5600x-oem/</t>
-  </si>
-  <si>
     <t>https://www.dns-shop.ru/product/d3c6a3f806feed20/processor-intel-core-i5-12400-oem/</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>https://www.dns‑shop.ru/product/ff075c9cbcc93332</t>
+  </si>
+  <si>
+    <t>https://www.citilink.ru/product/processor-amd-ryzen-5-5600x-am4-oem-100-000000065-1773829/</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,10 +509,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>14599</v>
+        <v>8990</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -521,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -529,7 +529,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>17399</v>
@@ -541,7 +541,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -549,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>36499</v>
@@ -561,7 +561,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -569,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>32499</v>
@@ -581,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -589,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>46999</v>
@@ -601,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -609,7 +609,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>18499</v>
@@ -621,7 +621,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -629,7 +629,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>17599</v>
@@ -641,7 +641,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -649,7 +649,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>5399</v>
@@ -661,7 +661,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -669,7 +669,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>11999</v>
@@ -681,7 +681,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -689,7 +689,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>16199</v>
@@ -701,7 +701,7 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -709,7 +709,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>11499</v>
@@ -721,7 +721,7 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -729,7 +729,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>11999</v>
@@ -741,7 +741,7 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -749,7 +749,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>5999</v>
@@ -758,10 +758,10 @@
         <v>6</v>
       </c>
       <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
         <v>21</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -769,7 +769,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>4199</v>
@@ -781,7 +781,7 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/pricelists/citilink_pricelist.xlsx
+++ b/data/pricelists/citilink_pricelist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\GolandProjects\StartupPCConfigurator\data\pricelists\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A473407E-3304-48BE-9473-412E61CB9641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C0750E-0142-4270-9C05-3CEDD0B07279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="7290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="133">
   <si>
     <t>ComponentID</t>
   </si>
@@ -92,13 +92,340 @@
   </si>
   <si>
     <t>https://www.citilink.ru/product/processor-amd-ryzen-5-5600x-am4-oem-100-000000065-1773829/</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93333</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93334</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93335</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93336</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93337</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93338</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93339</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93340</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93341</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93342</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93343</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93344</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93345</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93346</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93347</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93348</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93349</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93350</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93351</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93352</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93353</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93354</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93355</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93356</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93357</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93358</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93359</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93360</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93361</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93362</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93363</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93364</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93365</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93366</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93367</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93368</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93369</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93370</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93371</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93372</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93373</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93374</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93375</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93376</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93377</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93378</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93379</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93380</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93381</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93382</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93383</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93384</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93385</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93386</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93387</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93388</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93389</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93390</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93391</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93392</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93393</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93394</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93395</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93396</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93397</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93398</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93399</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93400</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93401</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93402</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93403</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93404</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93405</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93406</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93407</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93408</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93409</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93410</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93411</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93412</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93413</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93414</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93415</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93416</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93417</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93418</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93419</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93420</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93421</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93422</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93423</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93424</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93425</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93426</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93427</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93428</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93429</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93430</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93431</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93432</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93433</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93434</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93435</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93436</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93437</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93438</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93439</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93440</t>
+  </si>
+  <si>
+    <t>https://www.dns‑shop.ru/product/ff075c9cbcc93441</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +447,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,12 +494,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -472,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -651,8 +985,8 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>5399</v>
+      <c r="C9" s="3">
+        <v>62451</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -671,8 +1005,8 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
-        <v>11999</v>
+      <c r="C10" s="3">
+        <v>13142</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -691,8 +1025,8 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>16199</v>
+      <c r="C11" s="3">
+        <v>13432</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -711,8 +1045,8 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
-        <v>11499</v>
+      <c r="C12" s="3">
+        <v>13740</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -731,8 +1065,8 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13">
-        <v>11999</v>
+      <c r="C13" s="3">
+        <v>11432</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -751,8 +1085,8 @@
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14">
-        <v>5999</v>
+      <c r="C14" s="3">
+        <v>15150</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -771,8 +1105,8 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15">
-        <v>4199</v>
+      <c r="C15" s="3">
+        <v>23558</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -784,7 +1118,1861 @@
         <v>22</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3">
+        <v>13305</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4158</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6036</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3">
+        <v>9391</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3">
+        <v>16029</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3">
+        <v>31305</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3">
+        <v>13089</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3">
+        <v>8458</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3">
+        <v>7935</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3">
+        <v>7831</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3">
+        <v>8430</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3">
+        <v>8022</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3">
+        <v>11773</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10912</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3">
+        <v>26597</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3">
+        <v>5518</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3">
+        <v>5697</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4455</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="3">
+        <v>4811</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3">
+        <v>7163</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="3">
+        <v>5044</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="3">
+        <v>7895</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="3">
+        <v>25489</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="3">
+        <v>22205</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="3">
+        <v>17984</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="3">
+        <v>5903</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="3">
+        <v>16480</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="3">
+        <v>21498</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="3">
+        <v>16719</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="3">
+        <v>10221</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="3">
+        <v>13789</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="3">
+        <v>5053</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="3">
+        <v>9726</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="3">
+        <v>5230</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="3">
+        <v>10549</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="3">
+        <v>7764</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="3">
+        <v>7657</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="3">
+        <v>4119</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="3">
+        <v>26843</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="3">
+        <v>20575</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="3">
+        <v>69291</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="3">
+        <v>30769</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="3">
+        <v>123857</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="3">
+        <v>98494</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="3">
+        <v>34382</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="3">
+        <v>19297</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="3">
+        <v>34725</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="3">
+        <v>103761</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="3">
+        <v>65865</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="3">
+        <v>47553</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="3">
+        <v>44401</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="3">
+        <v>84056</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="3">
+        <v>99706</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="3">
+        <v>36002</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="3">
+        <v>34683</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="3">
+        <v>32763</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="3">
+        <v>19674</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="3">
+        <v>17010</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="3">
+        <v>15425</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="3">
+        <v>22393</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="3">
+        <v>24618</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="3">
+        <v>23145</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="3">
+        <v>29308</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="3">
+        <v>28926</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="3">
+        <v>11810</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="3">
+        <v>17168</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="3">
+        <v>24506</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="3">
+        <v>36305</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="3">
+        <v>55863</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="3">
+        <v>11974</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="3">
+        <v>13914</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="3">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="3">
+        <v>2938</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="3">
+        <v>5518</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="3">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="3">
+        <v>4755</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="3">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="3">
+        <v>15138</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="3">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="3">
+        <v>5054</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="3">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="3">
+        <v>20513</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="3">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="3">
+        <v>7629</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="3">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="3">
+        <v>11614</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="3">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="3">
+        <v>4927</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="3">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="3">
+        <v>6380</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="3">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="3">
+        <v>3142</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="3">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="3">
+        <v>2866</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="3">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="3">
+        <v>2470</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="3">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="3">
+        <v>8844</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="3">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="3">
+        <v>19346</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="3">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="3">
+        <v>4825</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="3">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="3">
+        <v>8355</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="3">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="3">
+        <v>8373</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="3">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="3">
+        <v>10827</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="3">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="3">
+        <v>6680</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="3">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="3">
+        <v>16477</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="3">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="3">
+        <v>3560</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="3">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="3">
+        <v>2618</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="3">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="3">
+        <v>6090</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="3">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="3">
+        <v>7428</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="3">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="3">
+        <v>10197</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="3">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="3">
+        <v>4999</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="3">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="3">
+        <v>8410</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="3">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" s="3">
+        <v>1671</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="3">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="3">
+        <v>2053</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="3">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="3">
+        <v>39772</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="3">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="3">
+        <v>23947</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="3">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" s="3">
+        <v>22849</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="3">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="3">
+        <v>7935</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="3">
+        <v>120</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="3">
+        <v>9998</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" s="3">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="3">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="3">
+        <v>1047</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="3">
+        <v>123</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="3">
+        <v>2282</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
